--- a/results/gurobi_cplex_comparison/seed_30_k_40.xlsx
+++ b/results/gurobi_cplex_comparison/seed_30_k_40.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.012</v>
+        <v>1.138</v>
       </c>
       <c r="F2">
-        <v>0.026</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.019</v>
+        <v>1.556</v>
       </c>
       <c r="F3">
-        <v>0.042</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.025</v>
+        <v>2.134</v>
       </c>
       <c r="F4">
-        <v>0.049</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.027</v>
+        <v>2.833</v>
       </c>
       <c r="F5">
-        <v>0.053</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.029</v>
+        <v>3.515</v>
       </c>
       <c r="F6">
-        <v>0.07199999999999999</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.027</v>
+        <v>4.346</v>
       </c>
       <c r="F7">
-        <v>0.063</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.048</v>
+        <v>5.275</v>
       </c>
       <c r="F8">
-        <v>0.077</v>
+        <v>1.135</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.043</v>
+        <v>6.359</v>
       </c>
       <c r="F9">
-        <v>0.076</v>
+        <v>1.316</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.042</v>
+        <v>7.381</v>
       </c>
       <c r="F10">
-        <v>0.07000000000000001</v>
+        <v>1.548</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.082</v>
+        <v>8.599</v>
       </c>
       <c r="F11">
-        <v>25.476</v>
+        <v>103.269</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.25</v>
+        <v>10.054</v>
       </c>
       <c r="F12">
-        <v>21.99</v>
+        <v>97.682</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.159</v>
+        <v>11.31</v>
       </c>
       <c r="F13">
-        <v>22.636</v>
+        <v>132.99</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.172</v>
+        <v>12.716</v>
       </c>
       <c r="F14">
-        <v>13.793</v>
+        <v>93.84999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.066</v>
+        <v>14.198</v>
       </c>
       <c r="F15">
-        <v>9.696999999999999</v>
+        <v>87.56999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.122</v>
+        <v>15.919</v>
       </c>
       <c r="F16">
-        <v>22.142</v>
+        <v>88.21899999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.211</v>
+        <v>17.829</v>
       </c>
       <c r="F17">
-        <v>28.954</v>
+        <v>91.084</v>
       </c>
     </row>
   </sheetData>
